--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1675.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1675.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.394365334911206</v>
+        <v>3.122973680496216</v>
       </c>
       <c r="B1">
-        <v>2.541571705224022</v>
+        <v>2.752149820327759</v>
       </c>
       <c r="C1">
-        <v>2.133490092734514</v>
+        <v>1.863809466362</v>
       </c>
       <c r="D1">
-        <v>1.943345667678246</v>
+        <v>1.524407982826233</v>
       </c>
       <c r="E1">
-        <v>1.642412084183757</v>
+        <v>1.425798296928406</v>
       </c>
     </row>
   </sheetData>
